--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NEC51- EQUIPO CLAVOS TENN # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NEC51- EQUIPO CLAVOS TENN # 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EACE2D-F6FA-44D9-B746-B1D1187590C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="12780" yWindow="150" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -17,33 +18,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">JAIRO!$A$10:$G$88</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>PRECIO UNITARIO</t>
   </si>
@@ -399,9 +389,6 @@
     <t xml:space="preserve">IDENTIFICACION DEL PACIENTE </t>
   </si>
   <si>
-    <t>H2204434</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENTREGADO </t>
   </si>
   <si>
@@ -466,20 +453,26 @@
   </si>
   <si>
     <t>N2306000612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2306000608 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2204434 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -842,35 +835,35 @@
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -945,16 +938,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,7 +964,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,11 +1017,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,34 +1065,34 @@
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Moneda" xfId="3" builtinId="4"/>
-    <cellStyle name="Moneda [0] 2" xfId="5"/>
-    <cellStyle name="Moneda [0] 2 2" xfId="15"/>
-    <cellStyle name="Moneda [0] 2 3" xfId="9"/>
-    <cellStyle name="Moneda [0] 3" xfId="14"/>
-    <cellStyle name="Moneda [0] 4" xfId="8"/>
-    <cellStyle name="Moneda 10" xfId="20"/>
-    <cellStyle name="Moneda 11" xfId="21"/>
-    <cellStyle name="Moneda 12" xfId="22"/>
-    <cellStyle name="Moneda 13" xfId="23"/>
-    <cellStyle name="Moneda 14" xfId="18"/>
-    <cellStyle name="Moneda 15" xfId="24"/>
-    <cellStyle name="Moneda 16" xfId="25"/>
-    <cellStyle name="Moneda 17" xfId="26"/>
-    <cellStyle name="Moneda 18" xfId="27"/>
-    <cellStyle name="Moneda 19" xfId="28"/>
-    <cellStyle name="Moneda 2" xfId="2"/>
-    <cellStyle name="Moneda 2 2" xfId="16"/>
-    <cellStyle name="Moneda 2 3" xfId="13"/>
-    <cellStyle name="Moneda 3" xfId="4"/>
-    <cellStyle name="Moneda 3 2" xfId="12"/>
-    <cellStyle name="Moneda 4" xfId="17"/>
-    <cellStyle name="Moneda 5" xfId="7"/>
-    <cellStyle name="Moneda 6" xfId="6"/>
-    <cellStyle name="Moneda 7" xfId="10"/>
-    <cellStyle name="Moneda 8" xfId="11"/>
-    <cellStyle name="Moneda 9" xfId="19"/>
+    <cellStyle name="Moneda [0] 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda [0] 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Moneda [0] 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Moneda [0] 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Moneda [0] 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Moneda 10" xfId="20" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Moneda 11" xfId="21" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Moneda 12" xfId="22" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Moneda 13" xfId="23" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Moneda 14" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Moneda 15" xfId="24" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Moneda 16" xfId="25" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Moneda 17" xfId="26" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Moneda 18" xfId="27" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Moneda 19" xfId="28" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Moneda 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Moneda 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Moneda 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Moneda 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Moneda 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Moneda 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Moneda 7" xfId="10" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Moneda 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Moneda 9" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1462,342 +1452,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:G117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="1" customWidth="1"/>
-    <col min="8" max="246" width="11.453125" style="1"/>
-    <col min="247" max="247" width="13.1796875" style="1" customWidth="1"/>
-    <col min="248" max="248" width="15.1796875" style="1" customWidth="1"/>
-    <col min="249" max="249" width="39.453125" style="1" customWidth="1"/>
-    <col min="250" max="502" width="11.453125" style="1"/>
-    <col min="503" max="503" width="13.1796875" style="1" customWidth="1"/>
-    <col min="504" max="504" width="15.1796875" style="1" customWidth="1"/>
-    <col min="505" max="505" width="39.453125" style="1" customWidth="1"/>
-    <col min="506" max="758" width="11.453125" style="1"/>
-    <col min="759" max="759" width="13.1796875" style="1" customWidth="1"/>
-    <col min="760" max="760" width="15.1796875" style="1" customWidth="1"/>
-    <col min="761" max="761" width="39.453125" style="1" customWidth="1"/>
-    <col min="762" max="1014" width="11.453125" style="1"/>
-    <col min="1015" max="1015" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1016" max="1016" width="15.1796875" style="1" customWidth="1"/>
-    <col min="1017" max="1017" width="39.453125" style="1" customWidth="1"/>
-    <col min="1018" max="1270" width="11.453125" style="1"/>
-    <col min="1271" max="1271" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1272" max="1272" width="15.1796875" style="1" customWidth="1"/>
-    <col min="1273" max="1273" width="39.453125" style="1" customWidth="1"/>
-    <col min="1274" max="1526" width="11.453125" style="1"/>
-    <col min="1527" max="1527" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1528" max="1528" width="15.1796875" style="1" customWidth="1"/>
-    <col min="1529" max="1529" width="39.453125" style="1" customWidth="1"/>
-    <col min="1530" max="1782" width="11.453125" style="1"/>
-    <col min="1783" max="1783" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1784" max="1784" width="15.1796875" style="1" customWidth="1"/>
-    <col min="1785" max="1785" width="39.453125" style="1" customWidth="1"/>
-    <col min="1786" max="2038" width="11.453125" style="1"/>
-    <col min="2039" max="2039" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2040" max="2040" width="15.1796875" style="1" customWidth="1"/>
-    <col min="2041" max="2041" width="39.453125" style="1" customWidth="1"/>
-    <col min="2042" max="2294" width="11.453125" style="1"/>
-    <col min="2295" max="2295" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2296" max="2296" width="15.1796875" style="1" customWidth="1"/>
-    <col min="2297" max="2297" width="39.453125" style="1" customWidth="1"/>
-    <col min="2298" max="2550" width="11.453125" style="1"/>
-    <col min="2551" max="2551" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2552" max="2552" width="15.1796875" style="1" customWidth="1"/>
-    <col min="2553" max="2553" width="39.453125" style="1" customWidth="1"/>
-    <col min="2554" max="2806" width="11.453125" style="1"/>
-    <col min="2807" max="2807" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2808" max="2808" width="15.1796875" style="1" customWidth="1"/>
-    <col min="2809" max="2809" width="39.453125" style="1" customWidth="1"/>
-    <col min="2810" max="3062" width="11.453125" style="1"/>
-    <col min="3063" max="3063" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3064" max="3064" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3065" max="3065" width="39.453125" style="1" customWidth="1"/>
-    <col min="3066" max="3318" width="11.453125" style="1"/>
-    <col min="3319" max="3319" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3320" max="3320" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3321" max="3321" width="39.453125" style="1" customWidth="1"/>
-    <col min="3322" max="3574" width="11.453125" style="1"/>
-    <col min="3575" max="3575" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3576" max="3576" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3577" max="3577" width="39.453125" style="1" customWidth="1"/>
-    <col min="3578" max="3830" width="11.453125" style="1"/>
-    <col min="3831" max="3831" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3832" max="3832" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3833" max="3833" width="39.453125" style="1" customWidth="1"/>
-    <col min="3834" max="4086" width="11.453125" style="1"/>
-    <col min="4087" max="4087" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4088" max="4088" width="15.1796875" style="1" customWidth="1"/>
-    <col min="4089" max="4089" width="39.453125" style="1" customWidth="1"/>
-    <col min="4090" max="4342" width="11.453125" style="1"/>
-    <col min="4343" max="4343" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4344" max="4344" width="15.1796875" style="1" customWidth="1"/>
-    <col min="4345" max="4345" width="39.453125" style="1" customWidth="1"/>
-    <col min="4346" max="4598" width="11.453125" style="1"/>
-    <col min="4599" max="4599" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4600" max="4600" width="15.1796875" style="1" customWidth="1"/>
-    <col min="4601" max="4601" width="39.453125" style="1" customWidth="1"/>
-    <col min="4602" max="4854" width="11.453125" style="1"/>
-    <col min="4855" max="4855" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4856" max="4856" width="15.1796875" style="1" customWidth="1"/>
-    <col min="4857" max="4857" width="39.453125" style="1" customWidth="1"/>
-    <col min="4858" max="5110" width="11.453125" style="1"/>
-    <col min="5111" max="5111" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5112" max="5112" width="15.1796875" style="1" customWidth="1"/>
-    <col min="5113" max="5113" width="39.453125" style="1" customWidth="1"/>
-    <col min="5114" max="5366" width="11.453125" style="1"/>
-    <col min="5367" max="5367" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5368" max="5368" width="15.1796875" style="1" customWidth="1"/>
-    <col min="5369" max="5369" width="39.453125" style="1" customWidth="1"/>
-    <col min="5370" max="5622" width="11.453125" style="1"/>
-    <col min="5623" max="5623" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5624" max="5624" width="15.1796875" style="1" customWidth="1"/>
-    <col min="5625" max="5625" width="39.453125" style="1" customWidth="1"/>
-    <col min="5626" max="5878" width="11.453125" style="1"/>
-    <col min="5879" max="5879" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5880" max="5880" width="15.1796875" style="1" customWidth="1"/>
-    <col min="5881" max="5881" width="39.453125" style="1" customWidth="1"/>
-    <col min="5882" max="6134" width="11.453125" style="1"/>
-    <col min="6135" max="6135" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6136" max="6136" width="15.1796875" style="1" customWidth="1"/>
-    <col min="6137" max="6137" width="39.453125" style="1" customWidth="1"/>
-    <col min="6138" max="6390" width="11.453125" style="1"/>
-    <col min="6391" max="6391" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6392" max="6392" width="15.1796875" style="1" customWidth="1"/>
-    <col min="6393" max="6393" width="39.453125" style="1" customWidth="1"/>
-    <col min="6394" max="6646" width="11.453125" style="1"/>
-    <col min="6647" max="6647" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6648" max="6648" width="15.1796875" style="1" customWidth="1"/>
-    <col min="6649" max="6649" width="39.453125" style="1" customWidth="1"/>
-    <col min="6650" max="6902" width="11.453125" style="1"/>
-    <col min="6903" max="6903" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6904" max="6904" width="15.1796875" style="1" customWidth="1"/>
-    <col min="6905" max="6905" width="39.453125" style="1" customWidth="1"/>
-    <col min="6906" max="7158" width="11.453125" style="1"/>
-    <col min="7159" max="7159" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7160" max="7160" width="15.1796875" style="1" customWidth="1"/>
-    <col min="7161" max="7161" width="39.453125" style="1" customWidth="1"/>
-    <col min="7162" max="7414" width="11.453125" style="1"/>
-    <col min="7415" max="7415" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7416" max="7416" width="15.1796875" style="1" customWidth="1"/>
-    <col min="7417" max="7417" width="39.453125" style="1" customWidth="1"/>
-    <col min="7418" max="7670" width="11.453125" style="1"/>
-    <col min="7671" max="7671" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7672" max="7672" width="15.1796875" style="1" customWidth="1"/>
-    <col min="7673" max="7673" width="39.453125" style="1" customWidth="1"/>
-    <col min="7674" max="7926" width="11.453125" style="1"/>
-    <col min="7927" max="7927" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7928" max="7928" width="15.1796875" style="1" customWidth="1"/>
-    <col min="7929" max="7929" width="39.453125" style="1" customWidth="1"/>
-    <col min="7930" max="8182" width="11.453125" style="1"/>
-    <col min="8183" max="8183" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8184" max="8184" width="15.1796875" style="1" customWidth="1"/>
-    <col min="8185" max="8185" width="39.453125" style="1" customWidth="1"/>
-    <col min="8186" max="8438" width="11.453125" style="1"/>
-    <col min="8439" max="8439" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8440" max="8440" width="15.1796875" style="1" customWidth="1"/>
-    <col min="8441" max="8441" width="39.453125" style="1" customWidth="1"/>
-    <col min="8442" max="8694" width="11.453125" style="1"/>
-    <col min="8695" max="8695" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8696" max="8696" width="15.1796875" style="1" customWidth="1"/>
-    <col min="8697" max="8697" width="39.453125" style="1" customWidth="1"/>
-    <col min="8698" max="8950" width="11.453125" style="1"/>
-    <col min="8951" max="8951" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8952" max="8952" width="15.1796875" style="1" customWidth="1"/>
-    <col min="8953" max="8953" width="39.453125" style="1" customWidth="1"/>
-    <col min="8954" max="9206" width="11.453125" style="1"/>
-    <col min="9207" max="9207" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9208" max="9208" width="15.1796875" style="1" customWidth="1"/>
-    <col min="9209" max="9209" width="39.453125" style="1" customWidth="1"/>
-    <col min="9210" max="9462" width="11.453125" style="1"/>
-    <col min="9463" max="9463" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9464" max="9464" width="15.1796875" style="1" customWidth="1"/>
-    <col min="9465" max="9465" width="39.453125" style="1" customWidth="1"/>
-    <col min="9466" max="9718" width="11.453125" style="1"/>
-    <col min="9719" max="9719" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9720" max="9720" width="15.1796875" style="1" customWidth="1"/>
-    <col min="9721" max="9721" width="39.453125" style="1" customWidth="1"/>
-    <col min="9722" max="9974" width="11.453125" style="1"/>
-    <col min="9975" max="9975" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9976" max="9976" width="15.1796875" style="1" customWidth="1"/>
-    <col min="9977" max="9977" width="39.453125" style="1" customWidth="1"/>
-    <col min="9978" max="10230" width="11.453125" style="1"/>
-    <col min="10231" max="10231" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10232" max="10232" width="15.1796875" style="1" customWidth="1"/>
-    <col min="10233" max="10233" width="39.453125" style="1" customWidth="1"/>
-    <col min="10234" max="10486" width="11.453125" style="1"/>
-    <col min="10487" max="10487" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10488" max="10488" width="15.1796875" style="1" customWidth="1"/>
-    <col min="10489" max="10489" width="39.453125" style="1" customWidth="1"/>
-    <col min="10490" max="10742" width="11.453125" style="1"/>
-    <col min="10743" max="10743" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10744" max="10744" width="15.1796875" style="1" customWidth="1"/>
-    <col min="10745" max="10745" width="39.453125" style="1" customWidth="1"/>
-    <col min="10746" max="10998" width="11.453125" style="1"/>
-    <col min="10999" max="10999" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11000" max="11000" width="15.1796875" style="1" customWidth="1"/>
-    <col min="11001" max="11001" width="39.453125" style="1" customWidth="1"/>
-    <col min="11002" max="11254" width="11.453125" style="1"/>
-    <col min="11255" max="11255" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11256" max="11256" width="15.1796875" style="1" customWidth="1"/>
-    <col min="11257" max="11257" width="39.453125" style="1" customWidth="1"/>
-    <col min="11258" max="11510" width="11.453125" style="1"/>
-    <col min="11511" max="11511" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11512" max="11512" width="15.1796875" style="1" customWidth="1"/>
-    <col min="11513" max="11513" width="39.453125" style="1" customWidth="1"/>
-    <col min="11514" max="11766" width="11.453125" style="1"/>
-    <col min="11767" max="11767" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11768" max="11768" width="15.1796875" style="1" customWidth="1"/>
-    <col min="11769" max="11769" width="39.453125" style="1" customWidth="1"/>
-    <col min="11770" max="12022" width="11.453125" style="1"/>
-    <col min="12023" max="12023" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12024" max="12024" width="15.1796875" style="1" customWidth="1"/>
-    <col min="12025" max="12025" width="39.453125" style="1" customWidth="1"/>
-    <col min="12026" max="12278" width="11.453125" style="1"/>
-    <col min="12279" max="12279" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12280" max="12280" width="15.1796875" style="1" customWidth="1"/>
-    <col min="12281" max="12281" width="39.453125" style="1" customWidth="1"/>
-    <col min="12282" max="12534" width="11.453125" style="1"/>
-    <col min="12535" max="12535" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12536" max="12536" width="15.1796875" style="1" customWidth="1"/>
-    <col min="12537" max="12537" width="39.453125" style="1" customWidth="1"/>
-    <col min="12538" max="12790" width="11.453125" style="1"/>
-    <col min="12791" max="12791" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12792" max="12792" width="15.1796875" style="1" customWidth="1"/>
-    <col min="12793" max="12793" width="39.453125" style="1" customWidth="1"/>
-    <col min="12794" max="13046" width="11.453125" style="1"/>
-    <col min="13047" max="13047" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13048" max="13048" width="15.1796875" style="1" customWidth="1"/>
-    <col min="13049" max="13049" width="39.453125" style="1" customWidth="1"/>
-    <col min="13050" max="13302" width="11.453125" style="1"/>
-    <col min="13303" max="13303" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13304" max="13304" width="15.1796875" style="1" customWidth="1"/>
-    <col min="13305" max="13305" width="39.453125" style="1" customWidth="1"/>
-    <col min="13306" max="13558" width="11.453125" style="1"/>
-    <col min="13559" max="13559" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13560" max="13560" width="15.1796875" style="1" customWidth="1"/>
-    <col min="13561" max="13561" width="39.453125" style="1" customWidth="1"/>
-    <col min="13562" max="13814" width="11.453125" style="1"/>
-    <col min="13815" max="13815" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13816" max="13816" width="15.1796875" style="1" customWidth="1"/>
-    <col min="13817" max="13817" width="39.453125" style="1" customWidth="1"/>
-    <col min="13818" max="14070" width="11.453125" style="1"/>
-    <col min="14071" max="14071" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14072" max="14072" width="15.1796875" style="1" customWidth="1"/>
-    <col min="14073" max="14073" width="39.453125" style="1" customWidth="1"/>
-    <col min="14074" max="14326" width="11.453125" style="1"/>
-    <col min="14327" max="14327" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14328" max="14328" width="15.1796875" style="1" customWidth="1"/>
-    <col min="14329" max="14329" width="39.453125" style="1" customWidth="1"/>
-    <col min="14330" max="14582" width="11.453125" style="1"/>
-    <col min="14583" max="14583" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14584" max="14584" width="15.1796875" style="1" customWidth="1"/>
-    <col min="14585" max="14585" width="39.453125" style="1" customWidth="1"/>
-    <col min="14586" max="14838" width="11.453125" style="1"/>
-    <col min="14839" max="14839" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14840" max="14840" width="15.1796875" style="1" customWidth="1"/>
-    <col min="14841" max="14841" width="39.453125" style="1" customWidth="1"/>
-    <col min="14842" max="15094" width="11.453125" style="1"/>
-    <col min="15095" max="15095" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15096" max="15096" width="15.1796875" style="1" customWidth="1"/>
-    <col min="15097" max="15097" width="39.453125" style="1" customWidth="1"/>
-    <col min="15098" max="15350" width="11.453125" style="1"/>
-    <col min="15351" max="15351" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15352" max="15352" width="15.1796875" style="1" customWidth="1"/>
-    <col min="15353" max="15353" width="39.453125" style="1" customWidth="1"/>
-    <col min="15354" max="15606" width="11.453125" style="1"/>
-    <col min="15607" max="15607" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15608" max="15608" width="15.1796875" style="1" customWidth="1"/>
-    <col min="15609" max="15609" width="39.453125" style="1" customWidth="1"/>
-    <col min="15610" max="15862" width="11.453125" style="1"/>
-    <col min="15863" max="15863" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15864" max="15864" width="15.1796875" style="1" customWidth="1"/>
-    <col min="15865" max="15865" width="39.453125" style="1" customWidth="1"/>
-    <col min="15866" max="16118" width="11.453125" style="1"/>
-    <col min="16119" max="16119" width="13.1796875" style="1" customWidth="1"/>
-    <col min="16120" max="16120" width="15.1796875" style="1" customWidth="1"/>
-    <col min="16121" max="16121" width="39.453125" style="1" customWidth="1"/>
-    <col min="16122" max="16384" width="11.453125" style="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="246" width="11.42578125" style="1"/>
+    <col min="247" max="247" width="13.140625" style="1" customWidth="1"/>
+    <col min="248" max="248" width="15.140625" style="1" customWidth="1"/>
+    <col min="249" max="249" width="39.42578125" style="1" customWidth="1"/>
+    <col min="250" max="502" width="11.42578125" style="1"/>
+    <col min="503" max="503" width="13.140625" style="1" customWidth="1"/>
+    <col min="504" max="504" width="15.140625" style="1" customWidth="1"/>
+    <col min="505" max="505" width="39.42578125" style="1" customWidth="1"/>
+    <col min="506" max="758" width="11.42578125" style="1"/>
+    <col min="759" max="759" width="13.140625" style="1" customWidth="1"/>
+    <col min="760" max="760" width="15.140625" style="1" customWidth="1"/>
+    <col min="761" max="761" width="39.42578125" style="1" customWidth="1"/>
+    <col min="762" max="1014" width="11.42578125" style="1"/>
+    <col min="1015" max="1015" width="13.140625" style="1" customWidth="1"/>
+    <col min="1016" max="1016" width="15.140625" style="1" customWidth="1"/>
+    <col min="1017" max="1017" width="39.42578125" style="1" customWidth="1"/>
+    <col min="1018" max="1270" width="11.42578125" style="1"/>
+    <col min="1271" max="1271" width="13.140625" style="1" customWidth="1"/>
+    <col min="1272" max="1272" width="15.140625" style="1" customWidth="1"/>
+    <col min="1273" max="1273" width="39.42578125" style="1" customWidth="1"/>
+    <col min="1274" max="1526" width="11.42578125" style="1"/>
+    <col min="1527" max="1527" width="13.140625" style="1" customWidth="1"/>
+    <col min="1528" max="1528" width="15.140625" style="1" customWidth="1"/>
+    <col min="1529" max="1529" width="39.42578125" style="1" customWidth="1"/>
+    <col min="1530" max="1782" width="11.42578125" style="1"/>
+    <col min="1783" max="1783" width="13.140625" style="1" customWidth="1"/>
+    <col min="1784" max="1784" width="15.140625" style="1" customWidth="1"/>
+    <col min="1785" max="1785" width="39.42578125" style="1" customWidth="1"/>
+    <col min="1786" max="2038" width="11.42578125" style="1"/>
+    <col min="2039" max="2039" width="13.140625" style="1" customWidth="1"/>
+    <col min="2040" max="2040" width="15.140625" style="1" customWidth="1"/>
+    <col min="2041" max="2041" width="39.42578125" style="1" customWidth="1"/>
+    <col min="2042" max="2294" width="11.42578125" style="1"/>
+    <col min="2295" max="2295" width="13.140625" style="1" customWidth="1"/>
+    <col min="2296" max="2296" width="15.140625" style="1" customWidth="1"/>
+    <col min="2297" max="2297" width="39.42578125" style="1" customWidth="1"/>
+    <col min="2298" max="2550" width="11.42578125" style="1"/>
+    <col min="2551" max="2551" width="13.140625" style="1" customWidth="1"/>
+    <col min="2552" max="2552" width="15.140625" style="1" customWidth="1"/>
+    <col min="2553" max="2553" width="39.42578125" style="1" customWidth="1"/>
+    <col min="2554" max="2806" width="11.42578125" style="1"/>
+    <col min="2807" max="2807" width="13.140625" style="1" customWidth="1"/>
+    <col min="2808" max="2808" width="15.140625" style="1" customWidth="1"/>
+    <col min="2809" max="2809" width="39.42578125" style="1" customWidth="1"/>
+    <col min="2810" max="3062" width="11.42578125" style="1"/>
+    <col min="3063" max="3063" width="13.140625" style="1" customWidth="1"/>
+    <col min="3064" max="3064" width="15.140625" style="1" customWidth="1"/>
+    <col min="3065" max="3065" width="39.42578125" style="1" customWidth="1"/>
+    <col min="3066" max="3318" width="11.42578125" style="1"/>
+    <col min="3319" max="3319" width="13.140625" style="1" customWidth="1"/>
+    <col min="3320" max="3320" width="15.140625" style="1" customWidth="1"/>
+    <col min="3321" max="3321" width="39.42578125" style="1" customWidth="1"/>
+    <col min="3322" max="3574" width="11.42578125" style="1"/>
+    <col min="3575" max="3575" width="13.140625" style="1" customWidth="1"/>
+    <col min="3576" max="3576" width="15.140625" style="1" customWidth="1"/>
+    <col min="3577" max="3577" width="39.42578125" style="1" customWidth="1"/>
+    <col min="3578" max="3830" width="11.42578125" style="1"/>
+    <col min="3831" max="3831" width="13.140625" style="1" customWidth="1"/>
+    <col min="3832" max="3832" width="15.140625" style="1" customWidth="1"/>
+    <col min="3833" max="3833" width="39.42578125" style="1" customWidth="1"/>
+    <col min="3834" max="4086" width="11.42578125" style="1"/>
+    <col min="4087" max="4087" width="13.140625" style="1" customWidth="1"/>
+    <col min="4088" max="4088" width="15.140625" style="1" customWidth="1"/>
+    <col min="4089" max="4089" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4090" max="4342" width="11.42578125" style="1"/>
+    <col min="4343" max="4343" width="13.140625" style="1" customWidth="1"/>
+    <col min="4344" max="4344" width="15.140625" style="1" customWidth="1"/>
+    <col min="4345" max="4345" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4346" max="4598" width="11.42578125" style="1"/>
+    <col min="4599" max="4599" width="13.140625" style="1" customWidth="1"/>
+    <col min="4600" max="4600" width="15.140625" style="1" customWidth="1"/>
+    <col min="4601" max="4601" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4602" max="4854" width="11.42578125" style="1"/>
+    <col min="4855" max="4855" width="13.140625" style="1" customWidth="1"/>
+    <col min="4856" max="4856" width="15.140625" style="1" customWidth="1"/>
+    <col min="4857" max="4857" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4858" max="5110" width="11.42578125" style="1"/>
+    <col min="5111" max="5111" width="13.140625" style="1" customWidth="1"/>
+    <col min="5112" max="5112" width="15.140625" style="1" customWidth="1"/>
+    <col min="5113" max="5113" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5114" max="5366" width="11.42578125" style="1"/>
+    <col min="5367" max="5367" width="13.140625" style="1" customWidth="1"/>
+    <col min="5368" max="5368" width="15.140625" style="1" customWidth="1"/>
+    <col min="5369" max="5369" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5370" max="5622" width="11.42578125" style="1"/>
+    <col min="5623" max="5623" width="13.140625" style="1" customWidth="1"/>
+    <col min="5624" max="5624" width="15.140625" style="1" customWidth="1"/>
+    <col min="5625" max="5625" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5626" max="5878" width="11.42578125" style="1"/>
+    <col min="5879" max="5879" width="13.140625" style="1" customWidth="1"/>
+    <col min="5880" max="5880" width="15.140625" style="1" customWidth="1"/>
+    <col min="5881" max="5881" width="39.42578125" style="1" customWidth="1"/>
+    <col min="5882" max="6134" width="11.42578125" style="1"/>
+    <col min="6135" max="6135" width="13.140625" style="1" customWidth="1"/>
+    <col min="6136" max="6136" width="15.140625" style="1" customWidth="1"/>
+    <col min="6137" max="6137" width="39.42578125" style="1" customWidth="1"/>
+    <col min="6138" max="6390" width="11.42578125" style="1"/>
+    <col min="6391" max="6391" width="13.140625" style="1" customWidth="1"/>
+    <col min="6392" max="6392" width="15.140625" style="1" customWidth="1"/>
+    <col min="6393" max="6393" width="39.42578125" style="1" customWidth="1"/>
+    <col min="6394" max="6646" width="11.42578125" style="1"/>
+    <col min="6647" max="6647" width="13.140625" style="1" customWidth="1"/>
+    <col min="6648" max="6648" width="15.140625" style="1" customWidth="1"/>
+    <col min="6649" max="6649" width="39.42578125" style="1" customWidth="1"/>
+    <col min="6650" max="6902" width="11.42578125" style="1"/>
+    <col min="6903" max="6903" width="13.140625" style="1" customWidth="1"/>
+    <col min="6904" max="6904" width="15.140625" style="1" customWidth="1"/>
+    <col min="6905" max="6905" width="39.42578125" style="1" customWidth="1"/>
+    <col min="6906" max="7158" width="11.42578125" style="1"/>
+    <col min="7159" max="7159" width="13.140625" style="1" customWidth="1"/>
+    <col min="7160" max="7160" width="15.140625" style="1" customWidth="1"/>
+    <col min="7161" max="7161" width="39.42578125" style="1" customWidth="1"/>
+    <col min="7162" max="7414" width="11.42578125" style="1"/>
+    <col min="7415" max="7415" width="13.140625" style="1" customWidth="1"/>
+    <col min="7416" max="7416" width="15.140625" style="1" customWidth="1"/>
+    <col min="7417" max="7417" width="39.42578125" style="1" customWidth="1"/>
+    <col min="7418" max="7670" width="11.42578125" style="1"/>
+    <col min="7671" max="7671" width="13.140625" style="1" customWidth="1"/>
+    <col min="7672" max="7672" width="15.140625" style="1" customWidth="1"/>
+    <col min="7673" max="7673" width="39.42578125" style="1" customWidth="1"/>
+    <col min="7674" max="7926" width="11.42578125" style="1"/>
+    <col min="7927" max="7927" width="13.140625" style="1" customWidth="1"/>
+    <col min="7928" max="7928" width="15.140625" style="1" customWidth="1"/>
+    <col min="7929" max="7929" width="39.42578125" style="1" customWidth="1"/>
+    <col min="7930" max="8182" width="11.42578125" style="1"/>
+    <col min="8183" max="8183" width="13.140625" style="1" customWidth="1"/>
+    <col min="8184" max="8184" width="15.140625" style="1" customWidth="1"/>
+    <col min="8185" max="8185" width="39.42578125" style="1" customWidth="1"/>
+    <col min="8186" max="8438" width="11.42578125" style="1"/>
+    <col min="8439" max="8439" width="13.140625" style="1" customWidth="1"/>
+    <col min="8440" max="8440" width="15.140625" style="1" customWidth="1"/>
+    <col min="8441" max="8441" width="39.42578125" style="1" customWidth="1"/>
+    <col min="8442" max="8694" width="11.42578125" style="1"/>
+    <col min="8695" max="8695" width="13.140625" style="1" customWidth="1"/>
+    <col min="8696" max="8696" width="15.140625" style="1" customWidth="1"/>
+    <col min="8697" max="8697" width="39.42578125" style="1" customWidth="1"/>
+    <col min="8698" max="8950" width="11.42578125" style="1"/>
+    <col min="8951" max="8951" width="13.140625" style="1" customWidth="1"/>
+    <col min="8952" max="8952" width="15.140625" style="1" customWidth="1"/>
+    <col min="8953" max="8953" width="39.42578125" style="1" customWidth="1"/>
+    <col min="8954" max="9206" width="11.42578125" style="1"/>
+    <col min="9207" max="9207" width="13.140625" style="1" customWidth="1"/>
+    <col min="9208" max="9208" width="15.140625" style="1" customWidth="1"/>
+    <col min="9209" max="9209" width="39.42578125" style="1" customWidth="1"/>
+    <col min="9210" max="9462" width="11.42578125" style="1"/>
+    <col min="9463" max="9463" width="13.140625" style="1" customWidth="1"/>
+    <col min="9464" max="9464" width="15.140625" style="1" customWidth="1"/>
+    <col min="9465" max="9465" width="39.42578125" style="1" customWidth="1"/>
+    <col min="9466" max="9718" width="11.42578125" style="1"/>
+    <col min="9719" max="9719" width="13.140625" style="1" customWidth="1"/>
+    <col min="9720" max="9720" width="15.140625" style="1" customWidth="1"/>
+    <col min="9721" max="9721" width="39.42578125" style="1" customWidth="1"/>
+    <col min="9722" max="9974" width="11.42578125" style="1"/>
+    <col min="9975" max="9975" width="13.140625" style="1" customWidth="1"/>
+    <col min="9976" max="9976" width="15.140625" style="1" customWidth="1"/>
+    <col min="9977" max="9977" width="39.42578125" style="1" customWidth="1"/>
+    <col min="9978" max="10230" width="11.42578125" style="1"/>
+    <col min="10231" max="10231" width="13.140625" style="1" customWidth="1"/>
+    <col min="10232" max="10232" width="15.140625" style="1" customWidth="1"/>
+    <col min="10233" max="10233" width="39.42578125" style="1" customWidth="1"/>
+    <col min="10234" max="10486" width="11.42578125" style="1"/>
+    <col min="10487" max="10487" width="13.140625" style="1" customWidth="1"/>
+    <col min="10488" max="10488" width="15.140625" style="1" customWidth="1"/>
+    <col min="10489" max="10489" width="39.42578125" style="1" customWidth="1"/>
+    <col min="10490" max="10742" width="11.42578125" style="1"/>
+    <col min="10743" max="10743" width="13.140625" style="1" customWidth="1"/>
+    <col min="10744" max="10744" width="15.140625" style="1" customWidth="1"/>
+    <col min="10745" max="10745" width="39.42578125" style="1" customWidth="1"/>
+    <col min="10746" max="10998" width="11.42578125" style="1"/>
+    <col min="10999" max="10999" width="13.140625" style="1" customWidth="1"/>
+    <col min="11000" max="11000" width="15.140625" style="1" customWidth="1"/>
+    <col min="11001" max="11001" width="39.42578125" style="1" customWidth="1"/>
+    <col min="11002" max="11254" width="11.42578125" style="1"/>
+    <col min="11255" max="11255" width="13.140625" style="1" customWidth="1"/>
+    <col min="11256" max="11256" width="15.140625" style="1" customWidth="1"/>
+    <col min="11257" max="11257" width="39.42578125" style="1" customWidth="1"/>
+    <col min="11258" max="11510" width="11.42578125" style="1"/>
+    <col min="11511" max="11511" width="13.140625" style="1" customWidth="1"/>
+    <col min="11512" max="11512" width="15.140625" style="1" customWidth="1"/>
+    <col min="11513" max="11513" width="39.42578125" style="1" customWidth="1"/>
+    <col min="11514" max="11766" width="11.42578125" style="1"/>
+    <col min="11767" max="11767" width="13.140625" style="1" customWidth="1"/>
+    <col min="11768" max="11768" width="15.140625" style="1" customWidth="1"/>
+    <col min="11769" max="11769" width="39.42578125" style="1" customWidth="1"/>
+    <col min="11770" max="12022" width="11.42578125" style="1"/>
+    <col min="12023" max="12023" width="13.140625" style="1" customWidth="1"/>
+    <col min="12024" max="12024" width="15.140625" style="1" customWidth="1"/>
+    <col min="12025" max="12025" width="39.42578125" style="1" customWidth="1"/>
+    <col min="12026" max="12278" width="11.42578125" style="1"/>
+    <col min="12279" max="12279" width="13.140625" style="1" customWidth="1"/>
+    <col min="12280" max="12280" width="15.140625" style="1" customWidth="1"/>
+    <col min="12281" max="12281" width="39.42578125" style="1" customWidth="1"/>
+    <col min="12282" max="12534" width="11.42578125" style="1"/>
+    <col min="12535" max="12535" width="13.140625" style="1" customWidth="1"/>
+    <col min="12536" max="12536" width="15.140625" style="1" customWidth="1"/>
+    <col min="12537" max="12537" width="39.42578125" style="1" customWidth="1"/>
+    <col min="12538" max="12790" width="11.42578125" style="1"/>
+    <col min="12791" max="12791" width="13.140625" style="1" customWidth="1"/>
+    <col min="12792" max="12792" width="15.140625" style="1" customWidth="1"/>
+    <col min="12793" max="12793" width="39.42578125" style="1" customWidth="1"/>
+    <col min="12794" max="13046" width="11.42578125" style="1"/>
+    <col min="13047" max="13047" width="13.140625" style="1" customWidth="1"/>
+    <col min="13048" max="13048" width="15.140625" style="1" customWidth="1"/>
+    <col min="13049" max="13049" width="39.42578125" style="1" customWidth="1"/>
+    <col min="13050" max="13302" width="11.42578125" style="1"/>
+    <col min="13303" max="13303" width="13.140625" style="1" customWidth="1"/>
+    <col min="13304" max="13304" width="15.140625" style="1" customWidth="1"/>
+    <col min="13305" max="13305" width="39.42578125" style="1" customWidth="1"/>
+    <col min="13306" max="13558" width="11.42578125" style="1"/>
+    <col min="13559" max="13559" width="13.140625" style="1" customWidth="1"/>
+    <col min="13560" max="13560" width="15.140625" style="1" customWidth="1"/>
+    <col min="13561" max="13561" width="39.42578125" style="1" customWidth="1"/>
+    <col min="13562" max="13814" width="11.42578125" style="1"/>
+    <col min="13815" max="13815" width="13.140625" style="1" customWidth="1"/>
+    <col min="13816" max="13816" width="15.140625" style="1" customWidth="1"/>
+    <col min="13817" max="13817" width="39.42578125" style="1" customWidth="1"/>
+    <col min="13818" max="14070" width="11.42578125" style="1"/>
+    <col min="14071" max="14071" width="13.140625" style="1" customWidth="1"/>
+    <col min="14072" max="14072" width="15.140625" style="1" customWidth="1"/>
+    <col min="14073" max="14073" width="39.42578125" style="1" customWidth="1"/>
+    <col min="14074" max="14326" width="11.42578125" style="1"/>
+    <col min="14327" max="14327" width="13.140625" style="1" customWidth="1"/>
+    <col min="14328" max="14328" width="15.140625" style="1" customWidth="1"/>
+    <col min="14329" max="14329" width="39.42578125" style="1" customWidth="1"/>
+    <col min="14330" max="14582" width="11.42578125" style="1"/>
+    <col min="14583" max="14583" width="13.140625" style="1" customWidth="1"/>
+    <col min="14584" max="14584" width="15.140625" style="1" customWidth="1"/>
+    <col min="14585" max="14585" width="39.42578125" style="1" customWidth="1"/>
+    <col min="14586" max="14838" width="11.42578125" style="1"/>
+    <col min="14839" max="14839" width="13.140625" style="1" customWidth="1"/>
+    <col min="14840" max="14840" width="15.140625" style="1" customWidth="1"/>
+    <col min="14841" max="14841" width="39.42578125" style="1" customWidth="1"/>
+    <col min="14842" max="15094" width="11.42578125" style="1"/>
+    <col min="15095" max="15095" width="13.140625" style="1" customWidth="1"/>
+    <col min="15096" max="15096" width="15.140625" style="1" customWidth="1"/>
+    <col min="15097" max="15097" width="39.42578125" style="1" customWidth="1"/>
+    <col min="15098" max="15350" width="11.42578125" style="1"/>
+    <col min="15351" max="15351" width="13.140625" style="1" customWidth="1"/>
+    <col min="15352" max="15352" width="15.140625" style="1" customWidth="1"/>
+    <col min="15353" max="15353" width="39.42578125" style="1" customWidth="1"/>
+    <col min="15354" max="15606" width="11.42578125" style="1"/>
+    <col min="15607" max="15607" width="13.140625" style="1" customWidth="1"/>
+    <col min="15608" max="15608" width="15.140625" style="1" customWidth="1"/>
+    <col min="15609" max="15609" width="39.42578125" style="1" customWidth="1"/>
+    <col min="15610" max="15862" width="11.42578125" style="1"/>
+    <col min="15863" max="15863" width="13.140625" style="1" customWidth="1"/>
+    <col min="15864" max="15864" width="15.140625" style="1" customWidth="1"/>
+    <col min="15865" max="15865" width="39.42578125" style="1" customWidth="1"/>
+    <col min="15866" max="16118" width="11.42578125" style="1"/>
+    <col min="16119" max="16119" width="13.140625" style="1" customWidth="1"/>
+    <col min="16120" max="16120" width="15.140625" style="1" customWidth="1"/>
+    <col min="16121" max="16121" width="39.42578125" style="1" customWidth="1"/>
+    <col min="16122" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="73"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="72"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="71"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="39" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="77"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E5" s="76"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="78" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="79"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="43">
         <f ca="1">NOW()</f>
-        <v>45384.715721296299</v>
+        <v>45397.905211342593</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>12</v>
@@ -1806,14 +1796,14 @@
         <v>20230300116</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1820,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1839,11 +1829,11 @@
       <c r="F11" s="12"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="18" t="s">
         <v>75</v>
       </c>
@@ -1856,7 +1846,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1865,7 +1855,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
@@ -1882,7 +1872,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1891,7 +1881,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
@@ -1908,7 +1898,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1917,7 +1907,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
@@ -1930,7 +1920,7 @@
       <c r="F18" s="27"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1939,7 +1929,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -1956,7 +1946,7 @@
       <c r="F20" s="27"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1965,7 +1955,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>85</v>
       </c>
@@ -1976,7 +1966,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14"/>
       <c r="C23" s="6"/>
@@ -1985,7 +1975,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
@@ -2008,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
         <v>3</v>
       </c>
@@ -2030,9 +2020,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="50">
         <v>2306000607</v>
@@ -2052,12 +2042,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="50">
-        <v>211038780</v>
+      <c r="B27" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>58</v>
@@ -2074,12 +2064,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>59</v>
@@ -2096,12 +2086,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>60</v>
@@ -2118,12 +2108,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>61</v>
@@ -2140,15 +2130,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D31" s="49">
         <v>0</v>
@@ -2162,11 +2152,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="50"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="65">
+      <c r="D32" s="49">
         <f>SUM(D25:D31)</f>
         <v>12</v>
       </c>
@@ -2174,7 +2164,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
     </row>
-    <row r="33" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2186,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2208,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="50"/>
       <c r="C35" s="3"/>
@@ -2229,7 +2219,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="F36" s="64" t="s">
         <v>25</v>
@@ -2239,7 +2229,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="F37" s="64" t="s">
         <v>2</v>
@@ -2249,7 +2239,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="F38" s="64" t="s">
         <v>26</v>
@@ -2259,48 +2249,48 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
     </row>
-    <row r="40" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="66" t="s">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="66"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="49" t="s">
         <v>104</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>105</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="49"/>
       <c r="C45" s="49" t="s">
         <v>29</v>
@@ -2308,7 +2298,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="51">
         <v>2</v>
       </c>
@@ -2318,7 +2308,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="51">
         <v>1</v>
       </c>
@@ -2328,7 +2318,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="51">
         <v>1</v>
       </c>
@@ -2338,7 +2328,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="51">
         <v>1</v>
       </c>
@@ -2348,7 +2338,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="51">
         <v>1</v>
       </c>
@@ -2358,7 +2348,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="51">
         <v>1</v>
       </c>
@@ -2368,7 +2358,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="51">
         <v>1</v>
       </c>
@@ -2378,7 +2368,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="51">
         <v>1</v>
       </c>
@@ -2388,7 +2378,7 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="51">
         <v>1</v>
       </c>
@@ -2398,7 +2388,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="51">
         <v>1</v>
       </c>
@@ -2408,7 +2398,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="49">
         <v>11</v>
       </c>
@@ -2416,7 +2406,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="51"/>
       <c r="C57" s="49" t="s">
         <v>40</v>
@@ -2424,7 +2414,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="51">
         <v>1</v>
       </c>
@@ -2434,7 +2424,7 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="51">
         <v>1</v>
       </c>
@@ -2444,7 +2434,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="51">
         <v>1</v>
       </c>
@@ -2454,7 +2444,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="51">
         <v>3</v>
       </c>
@@ -2464,7 +2454,7 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="51">
         <v>1</v>
       </c>
@@ -2474,7 +2464,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="51">
         <v>2</v>
       </c>
@@ -2482,7 +2472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="51">
         <v>1</v>
       </c>
@@ -2490,7 +2480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="51">
         <v>1</v>
       </c>
@@ -2498,7 +2488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="51">
         <v>1</v>
       </c>
@@ -2506,7 +2496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="51">
         <v>1</v>
       </c>
@@ -2514,7 +2504,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="2:3" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="51">
         <v>1</v>
       </c>
@@ -2522,7 +2512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="51">
         <v>1</v>
       </c>
@@ -2530,7 +2520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="51">
         <v>1</v>
       </c>
@@ -2538,7 +2528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="51">
         <v>1</v>
       </c>
@@ -2546,7 +2536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="51">
         <v>1</v>
       </c>
@@ -2554,220 +2544,220 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="49">
         <v>18</v>
       </c>
       <c r="C73" s="49"/>
     </row>
-    <row r="74" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="63"/>
       <c r="C75" s="63"/>
     </row>
-    <row r="76" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="63"/>
       <c r="C76" s="63"/>
     </row>
-    <row r="77" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="63"/>
       <c r="C77" s="63"/>
     </row>
-    <row r="78" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="63"/>
       <c r="C78" s="63"/>
     </row>
-    <row r="79" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="63"/>
       <c r="C79" s="63"/>
     </row>
-    <row r="80" spans="2:3" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="63"/>
       <c r="C80" s="63"/>
     </row>
-    <row r="81" spans="1:5" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="63"/>
       <c r="C81" s="63"/>
     </row>
-    <row r="82" spans="1:5" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="63"/>
       <c r="C82" s="63"/>
     </row>
-    <row r="83" spans="1:5" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="63"/>
       <c r="C83" s="63"/>
     </row>
-    <row r="84" spans="1:5" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:5" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="1:5" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="59" t="s">
         <v>92</v>
-      </c>
-      <c r="C88" s="59" t="s">
-        <v>93</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="58"/>
       <c r="C89" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D89"/>
     </row>
-    <row r="90" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="58"/>
       <c r="C90" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D90"/>
     </row>
-    <row r="91" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="58"/>
       <c r="C91" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91"/>
     </row>
-    <row r="92" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="58"/>
       <c r="C92" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="58"/>
       <c r="C93" s="59"/>
       <c r="D93"/>
     </row>
-    <row r="94" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="60" t="s">
         <v>76</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D94"/>
     </row>
-    <row r="95" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="60"/>
       <c r="C95" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D95"/>
     </row>
-    <row r="96" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="60"/>
       <c r="C96" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D96"/>
     </row>
-    <row r="97" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="56"/>
       <c r="C97" s="57"/>
       <c r="D97"/>
     </row>
-    <row r="98" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="56"/>
       <c r="C98" s="57"/>
       <c r="D98"/>
     </row>
-    <row r="99" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99"/>
       <c r="C99" s="14"/>
       <c r="D99"/>
     </row>
-    <row r="100" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100"/>
     </row>
-    <row r="101" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101"/>
     </row>
-    <row r="102" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="55"/>
     </row>
-    <row r="103" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103"/>
       <c r="C103"/>
     </row>
-    <row r="104" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C105" s="55"/>
     </row>
-    <row r="106" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C110" s="55"/>
     </row>
-    <row r="111" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111"/>
       <c r="C111"/>
     </row>
-    <row r="112" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112"/>
       <c r="C112"/>
     </row>
-    <row r="113" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C113" s="55"/>
     </row>
-    <row r="114" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114"/>
       <c r="C114"/>
     </row>
-    <row r="115" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115"/>
       <c r="C115"/>
     </row>
-    <row r="116" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C116" s="55"/>
     </row>
-    <row r="117" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117"/>
       <c r="C117"/>
     </row>
